--- a/Gestion de projet & rapport projet Robot R2D2/Exigences et vérification.xlsx
+++ b/Gestion de projet & rapport projet Robot R2D2/Exigences et vérification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-yves\Dropbox\Projet M1\Diagrammes et Cahiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-yves\Dropbox\Projet M1\Gestion de projet &amp; rapoort projet Robot R2D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>Designation de l'exigence:</t>
   </si>
   <si>
-    <t>Exigence:</t>
-  </si>
-  <si>
     <t>Nature de la justification</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>Communication carte BeagleBone et moteurs</t>
-  </si>
-  <si>
-    <t>Exigence optionnel:</t>
   </si>
   <si>
     <t>Nature de la justification:</t>
@@ -149,18 +143,12 @@
     </r>
   </si>
   <si>
-    <t>Utiliser la carte BeagleBone fournise</t>
-  </si>
-  <si>
     <t>Utiliser les moteurs, roues et fixations fournis</t>
   </si>
   <si>
     <t>Utilisation de language appris à l'ISEN (C/C++,JAVA,Python…)</t>
   </si>
   <si>
-    <t>Ne pas utiliser les ports de la carte BeagleBone utilisé par Mme Léonard</t>
-  </si>
-  <si>
     <t>Communication carte BeagleBone et capteur ultrason</t>
   </si>
   <si>
@@ -200,14 +188,38 @@
     <t>Etat (acquise/en cours/non acquise):</t>
   </si>
   <si>
-    <t>Preuve confromité (validé par le client: V / non validé: X):</t>
+    <t xml:space="preserve">NOTA: </t>
+  </si>
+  <si>
+    <t>Factory Acceptance Test (tests déroulés en usine sur chaque exemplaire du matériel et dont les résultats conditionnent l'acceptation du produit par le client</t>
+  </si>
+  <si>
+    <t>Inspection (vérification visuelle)</t>
+  </si>
+  <si>
+    <t>Analyse (vérificaiton s'appuyant sur des preuves obtenues par calculs …)</t>
+  </si>
+  <si>
+    <t>Preuve conformité (validé par le client: V / non validé: X):</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser les ports de la carte BeagleBone utilisés par Mme Léonard</t>
+  </si>
+  <si>
+    <t>Exigences optionnelles:</t>
+  </si>
+  <si>
+    <t>Exigences:</t>
+  </si>
+  <si>
+    <t>Utiliser la carte BeagleBone fournie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +232,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -342,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -353,11 +373,428 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="29">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -368,7 +805,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -378,450 +815,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -837,34 +830,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H20" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H20" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A1:H20"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Exigence:" dataDxfId="28"/>
-    <tableColumn id="2" name="Designation de l'exigence:" dataDxfId="27"/>
-    <tableColumn id="3" name="Nature de la justification" dataDxfId="26"/>
-    <tableColumn id="4" name="Moyen:" dataDxfId="25"/>
-    <tableColumn id="5" name="Etape:" dataDxfId="24"/>
-    <tableColumn id="6" name="Etat (acquise/en cours/non acquise):" dataDxfId="23"/>
-    <tableColumn id="7" name="Preuve confromité (validé par le client: V / non validé: X):" dataDxfId="22"/>
-    <tableColumn id="8" name="Commentaire:" dataDxfId="21"/>
+    <tableColumn id="1" name="Exigences:" dataDxfId="19"/>
+    <tableColumn id="2" name="Designation de l'exigence:" dataDxfId="18"/>
+    <tableColumn id="3" name="Nature de la justification" dataDxfId="17"/>
+    <tableColumn id="4" name="Moyen:" dataDxfId="16"/>
+    <tableColumn id="5" name="Etape:" dataDxfId="15"/>
+    <tableColumn id="6" name="Etat (acquise/en cours/non acquise):" dataDxfId="14"/>
+    <tableColumn id="7" name="Preuve conformité (validé par le client: V / non validé: X):" dataDxfId="13"/>
+    <tableColumn id="8" name="Commentaire:" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A23:H31" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A23:H31" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A23:H31"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Exigence optionnel:" dataDxfId="17"/>
-    <tableColumn id="2" name="Designation de l'exigence:" dataDxfId="16"/>
-    <tableColumn id="3" name="Nature de la justification:" dataDxfId="15"/>
-    <tableColumn id="4" name="Moyen:" dataDxfId="14"/>
-    <tableColumn id="5" name="Etape:" dataDxfId="13"/>
-    <tableColumn id="6" name="Etat (acquise/en cours/non acquise):" dataDxfId="12"/>
-    <tableColumn id="7" name="Preuve confromité (validé par le client: V / non validé: X):" dataDxfId="11"/>
-    <tableColumn id="8" name="Commentaire:" dataDxfId="10"/>
+    <tableColumn id="1" name="Exigences optionnelles:" dataDxfId="7"/>
+    <tableColumn id="2" name="Designation de l'exigence:" dataDxfId="6"/>
+    <tableColumn id="3" name="Nature de la justification:" dataDxfId="5"/>
+    <tableColumn id="4" name="Moyen:" dataDxfId="4"/>
+    <tableColumn id="5" name="Etape:" dataDxfId="3"/>
+    <tableColumn id="6" name="Etat (acquise/en cours/non acquise):" dataDxfId="2"/>
+    <tableColumn id="7" name="Preuve conformité (validé par le client: V / non validé: X):" dataDxfId="1"/>
+    <tableColumn id="8" name="Commentaire:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1133,15 +1126,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="64.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" customWidth="1"/>
@@ -1151,43 +1144,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1195,17 +1188,17 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1213,17 +1206,17 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1231,17 +1224,17 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1249,17 +1242,17 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1267,17 +1260,17 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1285,17 +1278,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1303,17 +1296,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1321,17 +1314,17 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1339,17 +1332,17 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1357,17 +1350,17 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1375,17 +1368,17 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1393,17 +1386,17 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1411,17 +1404,17 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1429,17 +1422,17 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1447,17 +1440,17 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1495,43 +1488,43 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1539,17 +1532,17 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1557,17 +1550,17 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1633,23 +1626,57 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G24:G32">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",G24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20 F24:F31">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Acquise">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="Acquise">
       <formula>NOT(ISERROR(SEARCH("Acquise",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Non acquise">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Non acquise">
       <formula>NOT(ISERROR(SEARCH("Non acquise",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
